--- a/import/song_data.xlsx
+++ b/import/song_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>player_id</t>
   </si>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>미한해 미안한데</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>콘치즈</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -114,68 +110,76 @@
     <t>무슨 생각 하는지 내 기분이 어떤지</t>
   </si>
   <si>
-    <t>미안해, 미안한데. 이번 콘치즈는 절대 포기 못해. 달콤한 마카롱에 콘치즈를 듬뿍 올린 콘치즈 와고롱은 맨날 sold out 이란 말이야</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>허니티라미슈브래드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>에그타르트</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>눈빛만으로도 서로 알 것 같았기에</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아침 햇살에 눈을 떠보니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">느슨한 티셔츠 같던 우리 사이 </t>
+  </si>
+  <si>
+    <t>아직 안자 문자했었네</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 이번엔 또 뭐야</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>조개롱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안해 미안한데</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인절미 와고롱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>허니티라미슈 브래드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>마다가스카르 바닐라빈 와고롱</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>눈빛만으로도 서로 알 것 같았기에</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아침 햇살에 눈을 떠보니 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">느슨한 티셔츠 같던 우리 사이 </t>
-  </si>
-  <si>
-    <t>아직 안자 문자했었네</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 이번엔 또 뭐야</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>조개롱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>느슨한 티셔츠 같던 우리 사이를 해결해줄 조개롱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼭 자기전에 생각나요. 쓰디쓴 에스프레소에 달콤한 허니티라미슈 브래드. 왜 나는 그 한조각을 남겼나</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침 햇살에 눈을 떠보니 햇님 같은 에그타르트가 먹고 싶네</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택은 한번도 내 몫인 적이 없는데 채 꺼내어 놓지도 않는 희귀템 마다가스카르 바닐라빈 와고롱은 어느덧 품절</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>인절미 마카롱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>우-예! 한 입 배어먹은 순간 무슨 생각 하는지 내 기분이 어떤지 굳이 말하지 않아도 알죠? 볶음콩가루의 고소한 풍미가 크. 맛있다</t>
+    <t>MOHO</t>
+  </si>
+  <si>
+    <t>http://image.bugsm.co.kr/album/images/original/5153/515310.jpg</t>
+  </si>
+  <si>
+    <t>혹시 오해 말아요. 그대 때문 아니죠. 그댄 내게 그저 에그타르트일 뿐인데 요즘 왠지 내 일상이 특별하게 변해버렸죠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">느슨한 티셔츠 같던 우리 사이. 우리에게 필요한 건 바로 와고 조개롱. 네 생각에 정신이 아득해 어느새 내 안에 네가 가득해. </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>우-예! 한 입 배어먹은 순간 무슨 생각 하는지 내 기분이 어떤지 굳이 말하지 않아도 알죠? 볶음콩가루의 고소한 풍미 가득 크. 맛있다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>틱탁 집 앞이야 잠깐 나와 와고 허니티라미슈브래드 먹을까. 이렇게 된 이상 후회하면 어때. 살쪄도 후회라면 이렇게라도 한번.</t>
+  </si>
+  <si>
+    <t>선택은 한번도 내 몫인 적이 없는데, 채 꺼내어먹지도 않았던 마다가스카르 바닐라빈 와고롱에. 넌 지키고 싶은게 너무나 많았기에 와고롱을 양보할 생각이 없었나봐.</t>
+  </si>
+  <si>
+    <t>알겠어 내가 미안한데 너만 참은게 아냐. 이번 콘치즈만은 절대 포기 못해. 달콤한 콘치즈를 듬뿍 넣은 와고 콘치즈 와고롱은 맨날 sold out 이란 말이야</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -231,6 +235,37 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343434"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF757271"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF3A3635"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
     </font>
@@ -247,8 +282,8 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF757271"/>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
     </font>
@@ -270,7 +305,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -279,8 +314,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -296,34 +332,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +749,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -711,212 +768,212 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="10"/>
-    <col min="4" max="4" width="27.1640625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="10"/>
+    <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="8"/>
+    <col min="4" max="4" width="27.1640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="17"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="15">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="15">
-        <v>4</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="15">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="10">
+      <c r="E7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="15">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="17"/>
+      <c r="F7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="17"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="17"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -932,10 +989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -969,6 +1026,17 @@
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -987,140 +1055,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="10"/>
-    <col min="3" max="3" width="30" style="10" customWidth="1"/>
-    <col min="4" max="4" width="98.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="10"/>
+    <col min="1" max="2" width="14.5" style="20"/>
+    <col min="3" max="3" width="24.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="10">
+      <c r="D1" s="19"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="63" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63" customHeight="1">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="10">
+      <c r="C5" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63" customHeight="1">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="10">
+    </row>
+    <row r="7" spans="1:5" ht="63" customHeight="1">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
+      <c r="B7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D11" s="11"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D12" s="11"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D19" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/import/song_data.xlsx
+++ b/import/song_data.xlsx
@@ -107,30 +107,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>무슨 생각 하는지 내 기분이 어떤지</t>
-  </si>
-  <si>
     <t>에그타르트</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>눈빛만으로도 서로 알 것 같았기에</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아침 햇살에 눈을 떠보니 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">느슨한 티셔츠 같던 우리 사이 </t>
-  </si>
-  <si>
-    <t>아직 안자 문자했었네</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 이번엔 또 뭐야</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>조개롱</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -180,6 +160,223 @@
   </si>
   <si>
     <t>알겠어 내가 미안한데 너만 참은게 아냐. 이번 콘치즈만은 절대 포기 못해. 달콤한 콘치즈를 듬뿍 넣은 와고 콘치즈 와고롱은 맨날 sold out 이란 말이야</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각 하는지 내 기분이 어떤지
+굳이 말하지 않아도 아는 사람
+무슨 일이 있는지 너의 마음 어떤지
+얘기하지 않아도 다 알 수 있어
+사람들 농담처럼 둘이 잘 어울려
+말도 안된다며 웃었던 
+그 때의 우리가 더 우스워
+다른 연인들처럼 너무 당연한데
+모두가 아는데 우리 둘만 왜
+우예 우예 아직도 아닌 척 외면하기엔
+우예 우예 난 니가 필요해 필요해
+우예 우예 니 맘을 모르는 척 외면하기엔
+우예 우예 넌 내가 필요해 필요해
+Ooh Sometimes 별 일 없이 연락할 때
+누군가 필요할 때 얘기하고 싶을 때
+나 지칠 땐 가끔 기대고
+넌 스스럼 없이 어깰 주고
+또 가끔 다투기도 하고
+언제 그랬냔 듯 웃어주고
+우예 우예 아직도 아닌 척 외면하기엔
+우예 우예 난 니가 필요해 필요해
+우예 우예 니 맘을 모르는 척 외면하기엔
+우예 우예 넌 내가 필요해 필요해
+huh huh huh huh tell me you’ll be mine
+huh huh huh huh I promise we’ll be fine
+huh huh huh huh come and cross the line
+huh huh huh huh huh OOH YEAH
+우예 우예 곁에 있을 때마다 매일 매일 더
+우예 우예 난 니가 필요해 필요해
+우예 우예 니 맘을 이제는 내게 말해줘
+I’ll be your girl I’ll be your friend 
+I’ll be your world
+난 매일 니가 필요해</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 이번엔 또 뭐야
+이번엔 또 내가 무슨 잘못한거야
+애매한 네 표정 굳은 그 말투
+하루종일 나만 눈치보고 있잖아
+그래 이번에도 나야
+이번에도 내가 무슨 실수한 거야
+어색한 네 표정 굳은 그 시선
+조심스레 잡은 내가 민망하잖아
+어디 갈까 뭐 먹을까
+달래 봐도 너는 마냥 그러거나 말거나
+눈치 보는 것도 솔직히 지쳤어
+왜 넌 매번 나만 또 신경 쓰게 만드는데
+알겠어 내가 미안한데
+모르겠어 내가 뭘 (그렇게 잘못한 건지)
+알겠어 내가 미안해 미안한데
+너만 참은게 아냐 
+나도 할 말은 있어 너무 그러지마
+좀 어색하지 너를 만나서 걷는 이 길
+평소엔 보이지 않던 아스팔트의 재질
+왜 왜 왜 그러냐는 질문에 
+유난히 더 날씨는 맑어
+잘 안받쳐주네 우리 사인
+엉켜 있어 주머니의 이어폰처럼 
+미리 풀어놔도 또 꼬이지 매듭도 없는데 
+괜히 화 풀기 싫지 
+니가 옆에서 칭얼거리는 게 나쁘진 않지 
+어디 갈까 (아무데나) 
+뭐 먹을까 (아무거나)
+달래봐도 너는 마냥 그러거나 말거나
+눈치 보는 것도 솔직히 지쳤어
+왜 넌 매번 나만 또 신경 쓰게 만드는데
+알겠어 내가 미안한데
+모르겠어 내가 뭘 (그렇게 잘못한 건지)
+알겠어 내가 미안해 미안한데
+너만 참은게 아냐 
+나도 할 말은 있어 너무 그러지마
+알겠어 내가 미안한데
+모르겠어 사실 다 
+(좋아해서 그런 건데)
+알겠어 내가 미안해 미안한데
+너만 참은게 아냐
+나도 할 말은 있어 너무 그러지마
+알겠어 내가 미안한데
+모르겠어 내가 뭘 (그렇게 잘못한 건지)
+알겠어 내가 미안해 미안한데
+너만 참은게 아냐 
+나도 할 말은 있어 너무 그러지마</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 안자 문자 했었네
+조금 전에 들어왔거든
+이제 누웠어 답장하면서도
+괜히 나는 또 거울 앞에
+Tick tock 시간은 자꾸 가는데
+Make up 오늘따라 자연스러운데
+Tick tock 말해볼까 조금 더 애태울까
+조금만 더 기다려 볼까
+내가 먼저 티를 내볼까
+이제는 알 때도 됐는데
+눈치 없는지 맘이 없는 건지
+날 헷갈리게 하려는 건지
+Tick tock 시간은 자꾸 가는데
+Make up 오늘따라 자연스러운데
+Tick tock 말해볼까 조금 더 애태울까
+조금만 더 기다려 볼까
+나도 모르는게 아냐 눈치 없는게 아냐
+우리 정말 시작인 것만 같아서
+조금 더 신중하게 너를 불러내려 해
+어색한 티는 내고 싶지 않아 난
+Tick tock 집 앞이야 잠깐 나와 좀 걸을까
+이렇게 된 이상 후회하면 어때
+안해도 후회라면 이렇게라도 한 번
+Tick tock 시간은 자꾸 가는데
+Make up 오늘따라 자연스러운데
+Tick tock 말해볼까 조금 더 애태울까
+조금만 더 기다려 볼까
+Tick tock Tick tock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈빛만으로도 서로 알 것 같았기에
+채 꺼내어 놓지도 않았던 마음들에
+넌 지키고 싶은 게 너무나 많았기에
+아무것도 내려놓을 용기가 없었나봐
+선택은 한번도 내 몫인 적이 없는데
+채 꺼내어 놓지도 않는 너의 말들에
+나 지키고 싶은 게 너무나 많았는데
+아무래도 내려놓을 수 밖에 없는가봐
+나만 아프지 기댈 곳이 필요했던 내게
+그 따뜻한 네 품을 잠시 내어준 건
+참 나쁘지 나쁘지 않으려는 맘이 
+때론 더 나빠
+너도 너를 모른다 하지마
+나를 걱정했다 말하지마
+아무렇지 않으려 애써도
+이젠 내가 나를 모르겠어
+나만 아프지 기댈 곳이 필요했던 내게
+그 따뜻한 네 품을 잠시 내어준 건
+참 나쁘지 나쁘지 않으려는 맘이
+때론 더 
+소중해서 미워하지 못하더라도
+이것만은 꼭 네게 전해주고 싶어
+참 나쁘지 상처주지 않으려는 맘이
+더 아파</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>느슨한 티셔츠 같던 우리 사이 
+어제까진 우린 그저 그런 사이 
+오늘 밤 너의 화이트셔츠 같이 타이트 
+하게 달라진 나의 너를 보는 내 맘 
+어제와는 달라 
+움직임 하나에 설레 
+날 보는 네 눈빛에 oh yeah 
+살짝 걷어올린 소매 
+왠지 리듬같은 너의 입맞춤 
+화이트셔츠 어깨라인 미소 fine 
+옷깃 사이로 내 맘이 스칠 때 
+화이트셔츠 어깨라인 you’re so fine 
+오늘 밤엔 green light 
+네 생각에 정신이 아득해 
+어느새 내 안에 네가 가득해 
+너도 이런 나의 맘을 아는 듯해 
+왠지 리듬같은 너의 입맞춤 
+화이트셔츠 어깨라인 미소 fine 
+옷깃 사이로 내 맘이 스칠 때 
+화이트셔츠 어깨라인 you’re so fine 
+오늘 밤엔 green light 
+나의 맘을 녹여준 너의 화이트셔츠 
+오늘따라 눈이 부셔 
+어깨라인 하얀 미소fine 
+니가 달라 보인 날 
+나의 맘을 녹여준 Mmm 
+(화이트셔츠 어깨라인 미소 fine) 
+반해버렸나봐 나의 맘이 너에게 Mmm
+(화이트셔츠 어깨라인 미소 fine)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 햇살에 눈을 떠보니 
+포근함이 나를 감싸요 
+오늘 왠지 기분이 좋죠
+매일 마시는 물컵에다가 
+물을 가득 따라 마시고 
+숨을 한 번 크게 내쉬죠
+똑같은 일상 속 일들뿐이죠
+크게 변한 건 없는데
+매일 번져오는 내 입가의 미소 
+숨길 수는 없는 것 같아요
+혹시 오해 말아요 그대 때문 아니죠
+그댄 내게 그저 일상일 뿐인데
+요즘 왠지 내 일상이 
+특별하게 변해버렸죠
+십분 일찍 일어날까요 
+동네 한 번 돌다 갈까요 
+출근길도 산책길 같죠
+한참 기다려 오는 버스는 
+오늘 역시 만원인데 
+나는 한껏 여유로워요
+똑같은 일상 속 일들뿐이죠
+크게 변한 건 없는데
+매일 번져오는 내 입가의 미소 
+숨길 수는 없는 것 같아요
+혹시 오해 말아요 그대 때문 아니죠
+그댄 내게 그저 일상일 뿐인데
+요즘 왠지 내 일상이 
+특별하게 변해버렸죠
+Someone special
+Ooh someone to love
+Some some some 
+그대 맘 어떤가요 나와 같은 건가요
+Some some some 
+Someone special
+Ooh someone to love
+Some some some 
+Someone special
+Ooh someone to love</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -235,30 +432,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF343434"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF757271"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="21"/>
       <color rgb="FF3A3635"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -266,7 +439,36 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <name val="Yoon 윤고딕 530_TT"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yoon 윤고딕 530_TT"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343434"/>
+      <name val="Yoon 윤고딕 530_TT"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Yoon 윤고딕 530_TT"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Yoon 윤고딕 530_TT"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -276,14 +478,8 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <name val="Apple SD 산돌고딕 Neo 일반체"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF757271"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
     </font>
@@ -305,7 +501,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -314,9 +510,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -325,62 +520,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +940,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -768,212 +959,210 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="8"/>
-    <col min="4" max="4" width="27.1640625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="8"/>
+    <col min="1" max="1" width="14.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="17"/>
+    <col min="4" max="4" width="27.1640625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="D2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="20">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="12"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="D3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="16">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="16">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="12"/>
+      <c r="F7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C8" s="9"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="12"/>
+      <c r="C8" s="18"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C9" s="9"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="12"/>
+      <c r="C9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C10" s="9"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -992,7 +1181,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1021,10 +1210,10 @@
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1032,11 +1221,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>36</v>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1058,145 +1247,145 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="20"/>
-    <col min="3" max="3" width="24.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="20"/>
+    <col min="1" max="2" width="14.5" style="11"/>
+    <col min="3" max="3" width="24.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="63" customHeight="1">
-      <c r="A2" s="20">
+      <c r="D1" s="10"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="43" customHeight="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="63" customHeight="1">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="63" customHeight="1">
-      <c r="A4" s="20">
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43" customHeight="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="63" customHeight="1">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="43" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1">
-      <c r="A7" s="20">
+    </row>
+    <row r="7" spans="1:5" ht="43" customHeight="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>43</v>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D11" s="22"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D12" s="22"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C13" s="24"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="25"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D18" s="25"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D19" s="25"/>
+      <c r="D19" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
